--- a/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C12.xlsx
+++ b/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E27FB6-5D08-4596-A1B7-071DE8276CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17264832-F769-4ED6-9E92-9C28B0A54DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>increase_limit</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -335,9 +335,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +375,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -481,7 +481,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C12.xlsx
+++ b/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17264832-F769-4ED6-9E92-9C28B0A54DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C866291-8738-4CDF-AE04-AA581437AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>increase_limit</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C12.xlsx
+++ b/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C866291-8738-4CDF-AE04-AA581437AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B670C9E-2629-460D-A10C-1353A0154705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -171,12 +171,6 @@
     <t>formType</t>
   </si>
   <si>
-    <t>new_entry</t>
-  </si>
-  <si>
-    <t>tgv-1223s-a</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -261,14 +255,20 @@
     <t>increase_limit</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>additional</t>
+  </si>
+  <si>
+    <t>TC1-Default-2024-07-04</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,6 +286,17 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F4254"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -309,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -317,6 +328,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,13 +649,13 @@
   <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
@@ -838,73 +852,73 @@
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -912,49 +926,49 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="AV2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -964,71 +978,71 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -1036,49 +1050,49 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AJ3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AS3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="AV3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
@@ -1087,6 +1101,7 @@
       <c r="BA3" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
